--- a/excel/tests/q_learn_5_rooms_test_alpha.xlsx
+++ b/excel/tests/q_learn_5_rooms_test_alpha.xlsx
@@ -29,40 +29,40 @@
     <t>Episodes</t>
   </si>
   <si>
-    <t>Epsilon = 0,01</t>
-  </si>
-  <si>
-    <t>Epsilon = 0,025</t>
-  </si>
-  <si>
-    <t>Epsilon = 0,05</t>
-  </si>
-  <si>
-    <t>Epsilon = 0,075</t>
-  </si>
-  <si>
-    <t>Epsilon = 0,1</t>
-  </si>
-  <si>
-    <t>Epsilon = 0,15</t>
-  </si>
-  <si>
-    <t>Epsilon = 0,2</t>
-  </si>
-  <si>
-    <t>Epsilon = 0,3</t>
-  </si>
-  <si>
-    <t>Epsilon = 0,4</t>
-  </si>
-  <si>
-    <t>Epsilon = 0,5</t>
-  </si>
-  <si>
     <t>Reward</t>
   </si>
   <si>
     <t>Iterations</t>
+  </si>
+  <si>
+    <t>Alpha = 0,01</t>
+  </si>
+  <si>
+    <t>Alpha = 0,025</t>
+  </si>
+  <si>
+    <t>Alpha = 0,05</t>
+  </si>
+  <si>
+    <t>Alpha = 0,075</t>
+  </si>
+  <si>
+    <t>Alpha = 0,1</t>
+  </si>
+  <si>
+    <t>Alpha = 0,15</t>
+  </si>
+  <si>
+    <t>Alpha = 0,2</t>
+  </si>
+  <si>
+    <t>Alpha = 0,3</t>
+  </si>
+  <si>
+    <t>Alpha = 0,4</t>
+  </si>
+  <si>
+    <t>Alpha = 0,5</t>
   </si>
 </sst>
 </file>
@@ -385,9 +385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -396,106 +394,106 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
